--- a/EnemyDrop.xlsx
+++ b/EnemyDrop.xlsx
@@ -404,18 +404,18 @@
     <t>0.2581</t>
   </si>
   <si>
+    <t>Cryo Rounds</t>
+  </si>
+  <si>
+    <t>0.0752</t>
+  </si>
+  <si>
     <t>True Steel</t>
   </si>
   <si>
-    <t>0.0752</t>
-  </si>
-  <si>
     <t>Steel Fiber</t>
   </si>
   <si>
-    <t>Cryo Rounds</t>
-  </si>
-  <si>
     <t>Lethal Momentum</t>
   </si>
   <si>
@@ -455,6 +455,27 @@
     <t>0.2255</t>
   </si>
   <si>
+    <t>Tusk Seeker</t>
+  </si>
+  <si>
+    <t>Killing Blow</t>
+  </si>
+  <si>
+    <t>Barrel Diffusion</t>
+  </si>
+  <si>
+    <t>Sawtooth Clip</t>
+  </si>
+  <si>
+    <t>0.7588</t>
+  </si>
+  <si>
+    <t>Crushing Ruin</t>
+  </si>
+  <si>
+    <t>Shimmering Blight</t>
+  </si>
+  <si>
     <t>Lynx</t>
   </si>
   <si>
@@ -464,27 +485,6 @@
     <t>0.3995</t>
   </si>
   <si>
-    <t>Tusk Seeker</t>
-  </si>
-  <si>
-    <t>Killing Blow</t>
-  </si>
-  <si>
-    <t>Barrel Diffusion</t>
-  </si>
-  <si>
-    <t>Sawtooth Clip</t>
-  </si>
-  <si>
-    <t>0.7588</t>
-  </si>
-  <si>
-    <t>Crushing Ruin</t>
-  </si>
-  <si>
-    <t>Shimmering Blight</t>
-  </si>
-  <si>
     <t>Kela De Thaym</t>
   </si>
   <si>
@@ -617,15 +617,15 @@
     <t>Phorid</t>
   </si>
   <si>
+    <t>0.2292</t>
+  </si>
+  <si>
+    <t>Stretch</t>
+  </si>
+  <si>
     <t>Molten Impact</t>
   </si>
   <si>
-    <t>0.2292</t>
-  </si>
-  <si>
-    <t>Stretch</t>
-  </si>
-  <si>
     <t>Energy Channel</t>
   </si>
   <si>
@@ -920,12 +920,12 @@
     <t>0.3056</t>
   </si>
   <si>
+    <t>0.0278</t>
+  </si>
+  <si>
     <t>Intensify</t>
   </si>
   <si>
-    <t>0.0278</t>
-  </si>
-  <si>
     <t>Heavy Impact</t>
   </si>
   <si>
@@ -1286,6 +1286,9 @@
     <t>Orphid Husks</t>
   </si>
   <si>
+    <t>Ghost</t>
+  </si>
+  <si>
     <t>Sundering Strike</t>
   </si>
   <si>
@@ -1295,9 +1298,6 @@
     <t>Concussion Rounds</t>
   </si>
   <si>
-    <t>Ghost</t>
-  </si>
-  <si>
     <t>0.263</t>
   </si>
   <si>
@@ -1343,12 +1343,12 @@
     <t>Quickdraw</t>
   </si>
   <si>
+    <t>Thunderbolt</t>
+  </si>
+  <si>
     <t>Razor Shot</t>
   </si>
   <si>
-    <t>Thunderbolt</t>
-  </si>
-  <si>
     <t>Crossing Snakes</t>
   </si>
   <si>
@@ -1400,12 +1400,12 @@
     <t>Speed Trigger</t>
   </si>
   <si>
+    <t>Regen</t>
+  </si>
+  <si>
     <t>Calculated Redirection</t>
   </si>
   <si>
-    <t>Regen</t>
-  </si>
-  <si>
     <t>Fracturing Wind</t>
   </si>
   <si>
@@ -1769,15 +1769,15 @@
     <t>Shield Osprey</t>
   </si>
   <si>
+    <t>Shock Absorbers</t>
+  </si>
+  <si>
+    <t>Shotgun Spazz</t>
+  </si>
+  <si>
     <t>Hawk Eye</t>
   </si>
   <si>
-    <t>Shotgun Spazz</t>
-  </si>
-  <si>
-    <t>Shock Absorbers</t>
-  </si>
-  <si>
     <t>0.8425</t>
   </si>
   <si>
@@ -2279,12 +2279,12 @@
     <t>Carrion Charger</t>
   </si>
   <si>
+    <t>Tusk Butcher</t>
+  </si>
+  <si>
     <t>Grineer Power Carrier</t>
   </si>
   <si>
-    <t>Tusk Butcher</t>
-  </si>
-  <si>
     <t>Alad V</t>
   </si>
   <si>
@@ -2663,10 +2663,10 @@
     <t>Azoth</t>
   </si>
   <si>
+    <t>Tusk Elite Lancer</t>
+  </si>
+  <si>
     <t>Leech Osprey</t>
-  </si>
-  <si>
-    <t>Tusk Elite Lancer</t>
   </si>
   <si>
     <t>Kuva Drahk</t>
@@ -3562,25 +3562,25 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
         <v>129</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>100</v>
       </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
         <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>129</v>
       </c>
       <c r="N10" t="s">
         <v>133</v>
@@ -3589,7 +3589,7 @@
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q10" t="s">
         <v>134</v>
@@ -3701,99 +3701,99 @@
         <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
         <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R12" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
         <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
         <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" t="s">
         <v>156</v>
-      </c>
-      <c r="R13" t="s">
-        <v>89</v>
-      </c>
-      <c r="S13" t="s">
-        <v>113</v>
-      </c>
-      <c r="T13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3970,7 +3970,7 @@
         <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -4277,7 +4277,7 @@
         <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -4286,7 +4286,7 @@
         <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
         <v>89</v>
@@ -4295,25 +4295,25 @@
         <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
         <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s">
         <v>89</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
@@ -4322,7 +4322,7 @@
         <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R21" t="s">
         <v>89</v>
@@ -4404,40 +4404,40 @@
         <v>200</v>
       </c>
       <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
         <v>201</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>202</v>
       </c>
-      <c r="E23" t="s">
-        <v>151</v>
-      </c>
       <c r="F23" t="s">
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
         <v>204</v>
@@ -4519,10 +4519,10 @@
         <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>213</v>
@@ -4776,7 +4776,7 @@
         <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
@@ -4976,16 +4976,16 @@
         <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
         <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
         <v>249</v>
@@ -4994,22 +4994,22 @@
         <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
         <v>249</v>
       </c>
       <c r="M33" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
         <v>249</v>
       </c>
       <c r="P33" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q33" t="s">
         <v>252</v>
@@ -5171,31 +5171,31 @@
         <v>101</v>
       </c>
       <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
         <v>216</v>
       </c>
-      <c r="F36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
         <v>111</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>251</v>
       </c>
-      <c r="I36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" t="s">
         <v>69</v>
-      </c>
-      <c r="K36" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" t="s">
-        <v>101</v>
       </c>
       <c r="N36" t="s">
         <v>271</v>
@@ -5280,7 +5280,7 @@
         <v>279</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>89</v>
@@ -5607,7 +5607,7 @@
         <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -5616,22 +5616,22 @@
         <v>301</v>
       </c>
       <c r="E44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>303</v>
       </c>
-      <c r="H44" t="s">
-        <v>204</v>
-      </c>
       <c r="I44" t="s">
         <v>63</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K44" t="s">
         <v>304</v>
@@ -5658,7 +5658,7 @@
         <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T44" t="s">
         <v>306</v>
@@ -5685,7 +5685,7 @@
         <v>253</v>
       </c>
       <c r="AB44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC44" t="s">
         <v>309</v>
@@ -5847,7 +5847,7 @@
         <v>319</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -6428,7 +6428,7 @@
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
         <v>173</v>
@@ -6472,7 +6472,7 @@
         <v>354</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -6481,22 +6481,22 @@
         <v>301</v>
       </c>
       <c r="E55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s">
         <v>302</v>
       </c>
-      <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>303</v>
       </c>
-      <c r="H55" t="s">
-        <v>204</v>
-      </c>
       <c r="I55" t="s">
         <v>63</v>
       </c>
       <c r="J55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K55" t="s">
         <v>304</v>
@@ -6523,7 +6523,7 @@
         <v>63</v>
       </c>
       <c r="S55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T55" t="s">
         <v>306</v>
@@ -6541,7 +6541,7 @@
         <v>253</v>
       </c>
       <c r="Y55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z55" t="s">
         <v>309</v>
@@ -6576,7 +6576,7 @@
         <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
         <v>89</v>
@@ -6585,7 +6585,7 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
         <v>89</v>
@@ -6594,25 +6594,25 @@
         <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I56" t="s">
         <v>89</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K56" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s">
         <v>89</v>
       </c>
       <c r="M56" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O56" t="s">
         <v>89</v>
@@ -6621,7 +6621,7 @@
         <v>69</v>
       </c>
       <c r="Q56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R56" t="s">
         <v>89</v>
@@ -6730,7 +6730,7 @@
         <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -6739,22 +6739,22 @@
         <v>301</v>
       </c>
       <c r="E58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>303</v>
       </c>
-      <c r="H58" t="s">
-        <v>204</v>
-      </c>
       <c r="I58" t="s">
         <v>63</v>
       </c>
       <c r="J58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K58" t="s">
         <v>304</v>
@@ -6781,7 +6781,7 @@
         <v>63</v>
       </c>
       <c r="S58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T58" t="s">
         <v>306</v>
@@ -6799,7 +6799,7 @@
         <v>253</v>
       </c>
       <c r="Y58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z58" t="s">
         <v>309</v>
@@ -7358,7 +7358,7 @@
         <v>89</v>
       </c>
       <c r="J69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K69" t="s">
         <v>388</v>
@@ -7384,7 +7384,7 @@
         <v>390</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
         <v>89</v>
@@ -7920,25 +7920,25 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>425</v>
+      </c>
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s">
         <v>109</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>250</v>
       </c>
-      <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" t="s">
         <v>111</v>
-      </c>
-      <c r="H77" t="s">
-        <v>425</v>
-      </c>
-      <c r="I77" t="s">
-        <v>89</v>
-      </c>
-      <c r="J77" t="s">
-        <v>101</v>
       </c>
       <c r="K77" t="s">
         <v>426</v>
@@ -7956,7 +7956,7 @@
         <v>89</v>
       </c>
       <c r="P77" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q77" t="s">
         <v>95</v>
@@ -7979,25 +7979,25 @@
         <v>89</v>
       </c>
       <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" t="s">
+        <v>425</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
         <v>109</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>250</v>
       </c>
-      <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" t="s">
         <v>111</v>
-      </c>
-      <c r="H78" t="s">
-        <v>425</v>
-      </c>
-      <c r="I78" t="s">
-        <v>89</v>
-      </c>
-      <c r="J78" t="s">
-        <v>101</v>
       </c>
       <c r="K78" t="s">
         <v>426</v>
@@ -8015,7 +8015,7 @@
         <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q78" t="s">
         <v>95</v>
@@ -8038,10 +8038,10 @@
         <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F79" t="s">
         <v>213</v>
@@ -8123,7 +8123,7 @@
         <v>434</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="C81" t="s">
         <v>89</v>
@@ -8132,7 +8132,7 @@
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>435</v>
+        <v>132</v>
       </c>
       <c r="F81" t="s">
         <v>89</v>
@@ -8300,16 +8300,16 @@
         <v>111</v>
       </c>
       <c r="H84" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I84" t="s">
         <v>89</v>
       </c>
       <c r="J84" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L84" t="s">
         <v>89</v>
@@ -8318,7 +8318,7 @@
         <v>101</v>
       </c>
       <c r="N84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O84" t="s">
         <v>89</v>
@@ -8327,7 +8327,7 @@
         <v>69</v>
       </c>
       <c r="Q84" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R84" t="s">
         <v>89</v>
@@ -8336,13 +8336,13 @@
         <v>69</v>
       </c>
       <c r="T84" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U84" t="s">
         <v>89</v>
       </c>
       <c r="V84" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W84" t="s">
         <v>95</v>
@@ -8613,7 +8613,7 @@
         <v>99</v>
       </c>
       <c r="K89" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L89" t="s">
         <v>89</v>
@@ -8622,7 +8622,7 @@
         <v>99</v>
       </c>
       <c r="N89" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="O89" t="s">
         <v>89</v>
@@ -8699,7 +8699,7 @@
         <v>471</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
         <v>226</v>
@@ -8858,7 +8858,7 @@
         <v>475</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
         <v>89</v>
@@ -8867,7 +8867,7 @@
         <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
         <v>89</v>
@@ -8876,25 +8876,25 @@
         <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I93" t="s">
         <v>89</v>
       </c>
       <c r="J93" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K93" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L93" t="s">
         <v>89</v>
       </c>
       <c r="M93" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O93" t="s">
         <v>89</v>
@@ -8903,7 +8903,7 @@
         <v>69</v>
       </c>
       <c r="Q93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R93" t="s">
         <v>89</v>
@@ -9470,7 +9470,7 @@
         <v>500</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
@@ -9742,7 +9742,7 @@
         <v>247</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F106" t="s">
         <v>63</v>
@@ -9807,7 +9807,7 @@
         <v>527</v>
       </c>
       <c r="D107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E107" t="s">
         <v>528</v>
@@ -9870,7 +9870,7 @@
         <v>527</v>
       </c>
       <c r="Y107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z107" t="s">
         <v>536</v>
@@ -9879,7 +9879,7 @@
         <v>527</v>
       </c>
       <c r="AB107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AC107" t="s">
         <v>135</v>
@@ -9973,7 +9973,7 @@
         <v>542</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
         <v>89</v>
@@ -10263,25 +10263,25 @@
         <v>546</v>
       </c>
       <c r="B113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" t="s">
         <v>547</v>
       </c>
-      <c r="C113" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" t="s">
         <v>113</v>
       </c>
-      <c r="E113" t="s">
-        <v>132</v>
-      </c>
-      <c r="F113" t="s">
-        <v>89</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
       <c r="H113" t="s">
-        <v>442</v>
+        <v>133</v>
       </c>
       <c r="I113" t="s">
         <v>89</v>
@@ -10644,22 +10644,22 @@
         <v>565</v>
       </c>
       <c r="H119" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="I119" t="s">
         <v>89</v>
       </c>
       <c r="J119" t="s">
+        <v>131</v>
+      </c>
+      <c r="K119" t="s">
+        <v>133</v>
+      </c>
+      <c r="L119" t="s">
+        <v>89</v>
+      </c>
+      <c r="M119" t="s">
         <v>565</v>
-      </c>
-      <c r="K119" t="s">
-        <v>203</v>
-      </c>
-      <c r="L119" t="s">
-        <v>89</v>
-      </c>
-      <c r="M119" t="s">
-        <v>131</v>
       </c>
       <c r="N119" t="s">
         <v>566</v>
@@ -10694,7 +10694,7 @@
         <v>568</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
         <v>63</v>
@@ -10703,7 +10703,7 @@
         <v>290</v>
       </c>
       <c r="E120" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F120" t="s">
         <v>63</v>
@@ -10712,7 +10712,7 @@
         <v>290</v>
       </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I120" t="s">
         <v>63</v>
@@ -10721,7 +10721,7 @@
         <v>290</v>
       </c>
       <c r="K120" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L120" t="s">
         <v>63</v>
@@ -11071,16 +11071,16 @@
         <v>101</v>
       </c>
       <c r="E127" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127" t="s">
+        <v>101</v>
+      </c>
+      <c r="H127" t="s">
         <v>124</v>
-      </c>
-      <c r="F127" t="s">
-        <v>63</v>
-      </c>
-      <c r="G127" t="s">
-        <v>125</v>
-      </c>
-      <c r="H127" t="s">
-        <v>250</v>
       </c>
       <c r="I127" t="s">
         <v>63</v>
@@ -11089,22 +11089,22 @@
         <v>125</v>
       </c>
       <c r="K127" t="s">
+        <v>250</v>
+      </c>
+      <c r="L127" t="s">
+        <v>63</v>
+      </c>
+      <c r="M127" t="s">
+        <v>125</v>
+      </c>
+      <c r="N127" t="s">
         <v>251</v>
       </c>
-      <c r="L127" t="s">
-        <v>63</v>
-      </c>
-      <c r="M127" t="s">
+      <c r="O127" t="s">
+        <v>63</v>
+      </c>
+      <c r="P127" t="s">
         <v>106</v>
-      </c>
-      <c r="N127" t="s">
-        <v>203</v>
-      </c>
-      <c r="O127" t="s">
-        <v>63</v>
-      </c>
-      <c r="P127" t="s">
-        <v>101</v>
       </c>
       <c r="Q127" t="s">
         <v>252</v>
@@ -11127,7 +11127,7 @@
         <v>89</v>
       </c>
       <c r="D128" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
         <v>586</v>
@@ -11145,7 +11145,7 @@
         <v>89</v>
       </c>
       <c r="J128" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K128" t="s">
         <v>95</v>
@@ -11245,7 +11245,7 @@
         <v>378</v>
       </c>
       <c r="M130" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N130" t="s">
         <v>95</v>
@@ -11280,16 +11280,16 @@
         <v>111</v>
       </c>
       <c r="H131" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I131" t="s">
         <v>89</v>
       </c>
       <c r="J131" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K131" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L131" t="s">
         <v>89</v>
@@ -11298,7 +11298,7 @@
         <v>101</v>
       </c>
       <c r="N131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O131" t="s">
         <v>89</v>
@@ -11307,7 +11307,7 @@
         <v>69</v>
       </c>
       <c r="Q131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R131" t="s">
         <v>89</v>
@@ -11316,13 +11316,13 @@
         <v>69</v>
       </c>
       <c r="T131" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U131" t="s">
         <v>89</v>
       </c>
       <c r="V131" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W131" t="s">
         <v>95</v>
@@ -11467,7 +11467,7 @@
         <v>598</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
         <v>89</v>
@@ -11562,22 +11562,22 @@
         <v>101</v>
       </c>
       <c r="H137" t="s">
+        <v>204</v>
+      </c>
+      <c r="I137" t="s">
+        <v>89</v>
+      </c>
+      <c r="J137" t="s">
+        <v>109</v>
+      </c>
+      <c r="K137" t="s">
         <v>197</v>
       </c>
-      <c r="I137" t="s">
-        <v>89</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="L137" t="s">
+        <v>89</v>
+      </c>
+      <c r="M137" t="s">
         <v>111</v>
-      </c>
-      <c r="K137" t="s">
-        <v>204</v>
-      </c>
-      <c r="L137" t="s">
-        <v>89</v>
-      </c>
-      <c r="M137" t="s">
-        <v>109</v>
       </c>
       <c r="N137" t="s">
         <v>198</v>
@@ -11744,7 +11744,7 @@
         <v>603</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
         <v>572</v>
@@ -11886,7 +11886,7 @@
         <v>253</v>
       </c>
       <c r="G143" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H143" t="s">
         <v>610</v>
@@ -11895,7 +11895,7 @@
         <v>253</v>
       </c>
       <c r="J143" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K143" t="s">
         <v>438</v>
@@ -12193,16 +12193,16 @@
         <v>111</v>
       </c>
       <c r="H148" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I148" t="s">
         <v>89</v>
       </c>
       <c r="J148" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L148" t="s">
         <v>89</v>
@@ -12211,7 +12211,7 @@
         <v>101</v>
       </c>
       <c r="N148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O148" t="s">
         <v>89</v>
@@ -12220,7 +12220,7 @@
         <v>69</v>
       </c>
       <c r="Q148" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R148" t="s">
         <v>89</v>
@@ -12229,13 +12229,13 @@
         <v>69</v>
       </c>
       <c r="T148" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U148" t="s">
         <v>89</v>
       </c>
       <c r="V148" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W148" t="s">
         <v>95</v>
@@ -12270,7 +12270,7 @@
         <v>101</v>
       </c>
       <c r="H149" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="I149" t="s">
         <v>63</v>
@@ -12279,25 +12279,25 @@
         <v>111</v>
       </c>
       <c r="K149" t="s">
+        <v>139</v>
+      </c>
+      <c r="L149" t="s">
+        <v>63</v>
+      </c>
+      <c r="M149" t="s">
+        <v>111</v>
+      </c>
+      <c r="N149" t="s">
         <v>436</v>
       </c>
-      <c r="L149" t="s">
-        <v>63</v>
-      </c>
-      <c r="M149" t="s">
+      <c r="O149" t="s">
+        <v>63</v>
+      </c>
+      <c r="P149" t="s">
         <v>101</v>
       </c>
-      <c r="N149" t="s">
-        <v>442</v>
-      </c>
-      <c r="O149" t="s">
-        <v>63</v>
-      </c>
-      <c r="P149" t="s">
-        <v>111</v>
-      </c>
       <c r="Q149" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R149" t="s">
         <v>63</v>
@@ -12530,7 +12530,7 @@
         <v>89</v>
       </c>
       <c r="M153" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N153" t="s">
         <v>628</v>
@@ -12706,16 +12706,16 @@
         <v>111</v>
       </c>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I157" t="s">
         <v>89</v>
       </c>
       <c r="J157" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L157" t="s">
         <v>89</v>
@@ -12724,7 +12724,7 @@
         <v>101</v>
       </c>
       <c r="N157" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O157" t="s">
         <v>89</v>
@@ -12733,7 +12733,7 @@
         <v>69</v>
       </c>
       <c r="Q157" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R157" t="s">
         <v>89</v>
@@ -12742,13 +12742,13 @@
         <v>69</v>
       </c>
       <c r="T157" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U157" t="s">
         <v>89</v>
       </c>
       <c r="V157" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W157" t="s">
         <v>95</v>
@@ -12783,16 +12783,16 @@
         <v>111</v>
       </c>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I158" t="s">
         <v>89</v>
       </c>
       <c r="J158" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L158" t="s">
         <v>89</v>
@@ -12801,7 +12801,7 @@
         <v>101</v>
       </c>
       <c r="N158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O158" t="s">
         <v>89</v>
@@ -12810,7 +12810,7 @@
         <v>69</v>
       </c>
       <c r="Q158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R158" t="s">
         <v>89</v>
@@ -12819,13 +12819,13 @@
         <v>69</v>
       </c>
       <c r="T158" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U158" t="s">
         <v>89</v>
       </c>
       <c r="V158" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W158" t="s">
         <v>95</v>
@@ -13400,40 +13400,40 @@
         <v>657</v>
       </c>
       <c r="B168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" t="s">
+        <v>89</v>
+      </c>
+      <c r="D168" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F168" t="s">
+        <v>89</v>
+      </c>
+      <c r="G168" t="s">
+        <v>101</v>
+      </c>
+      <c r="H168" t="s">
         <v>179</v>
       </c>
-      <c r="C168" t="s">
-        <v>89</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="I168" t="s">
+        <v>89</v>
+      </c>
+      <c r="J168" t="s">
         <v>111</v>
       </c>
-      <c r="E168" t="s">
+      <c r="K168" t="s">
         <v>658</v>
       </c>
-      <c r="F168" t="s">
-        <v>89</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="L168" t="s">
+        <v>89</v>
+      </c>
+      <c r="M168" t="s">
         <v>111</v>
-      </c>
-      <c r="H168" t="s">
-        <v>133</v>
-      </c>
-      <c r="I168" t="s">
-        <v>89</v>
-      </c>
-      <c r="J168" t="s">
-        <v>101</v>
-      </c>
-      <c r="K168" t="s">
-        <v>203</v>
-      </c>
-      <c r="L168" t="s">
-        <v>89</v>
-      </c>
-      <c r="M168" t="s">
-        <v>101</v>
       </c>
       <c r="N168" t="s">
         <v>659</v>
@@ -13465,7 +13465,7 @@
         <v>527</v>
       </c>
       <c r="D169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E169" t="s">
         <v>528</v>
@@ -13528,7 +13528,7 @@
         <v>527</v>
       </c>
       <c r="Y169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z169" t="s">
         <v>536</v>
@@ -13537,7 +13537,7 @@
         <v>527</v>
       </c>
       <c r="AB169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AC169" t="s">
         <v>135</v>
@@ -13690,7 +13690,7 @@
         <v>663</v>
       </c>
       <c r="B172" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C172" t="s">
         <v>226</v>
@@ -13776,7 +13776,7 @@
         <v>187</v>
       </c>
       <c r="K173" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L173" t="s">
         <v>89</v>
@@ -13885,7 +13885,7 @@
         <v>676</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
@@ -13894,7 +13894,7 @@
         <v>290</v>
       </c>
       <c r="E175" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F175" t="s">
         <v>63</v>
@@ -13903,7 +13903,7 @@
         <v>290</v>
       </c>
       <c r="H175" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I175" t="s">
         <v>63</v>
@@ -13912,7 +13912,7 @@
         <v>290</v>
       </c>
       <c r="K175" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L175" t="s">
         <v>63</v>
@@ -14039,22 +14039,22 @@
         <v>678</v>
       </c>
       <c r="B177" t="s">
+        <v>442</v>
+      </c>
+      <c r="C177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" t="s">
+        <v>125</v>
+      </c>
+      <c r="E177" t="s">
         <v>385</v>
       </c>
-      <c r="C177" t="s">
-        <v>89</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="F177" t="s">
+        <v>89</v>
+      </c>
+      <c r="G177" t="s">
         <v>101</v>
-      </c>
-      <c r="E177" t="s">
-        <v>442</v>
-      </c>
-      <c r="F177" t="s">
-        <v>89</v>
-      </c>
-      <c r="G177" t="s">
-        <v>125</v>
       </c>
       <c r="H177" t="s">
         <v>679</v>
@@ -14072,7 +14072,7 @@
         <v>89</v>
       </c>
       <c r="M177" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178">
@@ -14190,7 +14190,7 @@
         <v>253</v>
       </c>
       <c r="G179" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>674</v>
@@ -14208,7 +14208,7 @@
         <v>253</v>
       </c>
       <c r="M179" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N179" t="s">
         <v>682</v>
@@ -15079,7 +15079,7 @@
         <v>708</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C196" t="s">
         <v>63</v>
@@ -15088,7 +15088,7 @@
         <v>290</v>
       </c>
       <c r="E196" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F196" t="s">
         <v>63</v>
@@ -15097,7 +15097,7 @@
         <v>290</v>
       </c>
       <c r="H196" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I196" t="s">
         <v>63</v>
@@ -15106,7 +15106,7 @@
         <v>290</v>
       </c>
       <c r="K196" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L196" t="s">
         <v>63</v>
@@ -15375,7 +15375,7 @@
         <v>89</v>
       </c>
       <c r="G200" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H200" t="s">
         <v>193</v>
@@ -15688,7 +15688,7 @@
         <v>63</v>
       </c>
       <c r="G205" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H205" t="s">
         <v>721</v>
@@ -15900,16 +15900,16 @@
         <v>101</v>
       </c>
       <c r="E209" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F209" t="s">
         <v>249</v>
       </c>
       <c r="G209" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H209" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="I209" t="s">
         <v>249</v>
@@ -15918,22 +15918,22 @@
         <v>125</v>
       </c>
       <c r="K209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L209" t="s">
         <v>249</v>
       </c>
       <c r="M209" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="N209" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="O209" t="s">
         <v>249</v>
       </c>
       <c r="P209" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q209" t="s">
         <v>252</v>
@@ -16344,7 +16344,7 @@
         <v>99</v>
       </c>
       <c r="K215" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L215" t="s">
         <v>89</v>
@@ -16353,7 +16353,7 @@
         <v>99</v>
       </c>
       <c r="N215" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="O215" t="s">
         <v>89</v>
@@ -16403,16 +16403,16 @@
         <v>111</v>
       </c>
       <c r="H216" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I216" t="s">
         <v>89</v>
       </c>
       <c r="J216" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K216" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L216" t="s">
         <v>89</v>
@@ -16421,7 +16421,7 @@
         <v>101</v>
       </c>
       <c r="N216" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O216" t="s">
         <v>89</v>
@@ -16430,7 +16430,7 @@
         <v>69</v>
       </c>
       <c r="Q216" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R216" t="s">
         <v>89</v>
@@ -16439,13 +16439,13 @@
         <v>69</v>
       </c>
       <c r="T216" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U216" t="s">
         <v>89</v>
       </c>
       <c r="V216" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W216" t="s">
         <v>95</v>
@@ -16568,7 +16568,7 @@
         <v>89</v>
       </c>
       <c r="J219" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K219" t="s">
         <v>295</v>
@@ -16627,7 +16627,7 @@
         <v>89</v>
       </c>
       <c r="J220" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K220" t="s">
         <v>295</v>
@@ -16884,7 +16884,7 @@
         <v>99</v>
       </c>
       <c r="K224" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L224" t="s">
         <v>89</v>
@@ -16893,7 +16893,7 @@
         <v>99</v>
       </c>
       <c r="N224" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="O224" t="s">
         <v>89</v>
@@ -16925,58 +16925,76 @@
         <v>755</v>
       </c>
       <c r="B225" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C225" t="s">
         <v>89</v>
       </c>
       <c r="D225" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E225" t="s">
-        <v>410</v>
+        <v>188</v>
       </c>
       <c r="F225" t="s">
         <v>89</v>
       </c>
       <c r="G225" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H225" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I225" t="s">
         <v>89</v>
       </c>
       <c r="J225" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K225" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="L225" t="s">
         <v>89</v>
       </c>
       <c r="M225" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="N225" t="s">
-        <v>411</v>
+        <v>191</v>
       </c>
       <c r="O225" t="s">
         <v>89</v>
       </c>
       <c r="P225" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="Q225" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="R225" t="s">
         <v>89</v>
       </c>
       <c r="S225" t="s">
-        <v>412</v>
+        <v>99</v>
+      </c>
+      <c r="T225" t="s">
+        <v>193</v>
+      </c>
+      <c r="U225" t="s">
+        <v>89</v>
+      </c>
+      <c r="V225" t="s">
+        <v>109</v>
+      </c>
+      <c r="W225" t="s">
+        <v>95</v>
+      </c>
+      <c r="X225" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="226">
@@ -16984,76 +17002,58 @@
         <v>756</v>
       </c>
       <c r="B226" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="C226" t="s">
         <v>89</v>
       </c>
       <c r="D226" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="E226" t="s">
-        <v>188</v>
+        <v>410</v>
       </c>
       <c r="F226" t="s">
         <v>89</v>
       </c>
       <c r="G226" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H226" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I226" t="s">
         <v>89</v>
       </c>
       <c r="J226" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K226" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L226" t="s">
         <v>89</v>
       </c>
       <c r="M226" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="N226" t="s">
-        <v>191</v>
+        <v>411</v>
       </c>
       <c r="O226" t="s">
         <v>89</v>
       </c>
       <c r="P226" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="Q226" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="R226" t="s">
         <v>89</v>
       </c>
       <c r="S226" t="s">
-        <v>99</v>
-      </c>
-      <c r="T226" t="s">
-        <v>193</v>
-      </c>
-      <c r="U226" t="s">
-        <v>89</v>
-      </c>
-      <c r="V226" t="s">
-        <v>109</v>
-      </c>
-      <c r="W226" t="s">
-        <v>95</v>
-      </c>
-      <c r="X226" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227">
@@ -17079,7 +17079,7 @@
         <v>101</v>
       </c>
       <c r="H227" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="I227" t="s">
         <v>63</v>
@@ -17088,25 +17088,25 @@
         <v>111</v>
       </c>
       <c r="K227" t="s">
+        <v>139</v>
+      </c>
+      <c r="L227" t="s">
+        <v>63</v>
+      </c>
+      <c r="M227" t="s">
+        <v>111</v>
+      </c>
+      <c r="N227" t="s">
         <v>436</v>
       </c>
-      <c r="L227" t="s">
-        <v>63</v>
-      </c>
-      <c r="M227" t="s">
+      <c r="O227" t="s">
+        <v>63</v>
+      </c>
+      <c r="P227" t="s">
         <v>101</v>
       </c>
-      <c r="N227" t="s">
-        <v>442</v>
-      </c>
-      <c r="O227" t="s">
-        <v>63</v>
-      </c>
-      <c r="P227" t="s">
-        <v>111</v>
-      </c>
       <c r="Q227" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R227" t="s">
         <v>63</v>
@@ -17147,16 +17147,16 @@
         <v>111</v>
       </c>
       <c r="H228" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I228" t="s">
         <v>89</v>
       </c>
       <c r="J228" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K228" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L228" t="s">
         <v>89</v>
@@ -17165,7 +17165,7 @@
         <v>101</v>
       </c>
       <c r="N228" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O228" t="s">
         <v>89</v>
@@ -17174,7 +17174,7 @@
         <v>69</v>
       </c>
       <c r="Q228" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R228" t="s">
         <v>89</v>
@@ -17183,13 +17183,13 @@
         <v>69</v>
       </c>
       <c r="T228" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U228" t="s">
         <v>89</v>
       </c>
       <c r="V228" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W228" t="s">
         <v>95</v>
@@ -17283,22 +17283,22 @@
         <v>760</v>
       </c>
       <c r="B230" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" t="s">
+        <v>89</v>
+      </c>
+      <c r="D230" t="s">
+        <v>125</v>
+      </c>
+      <c r="E230" t="s">
         <v>385</v>
       </c>
-      <c r="C230" t="s">
-        <v>89</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="F230" t="s">
+        <v>89</v>
+      </c>
+      <c r="G230" t="s">
         <v>101</v>
-      </c>
-      <c r="E230" t="s">
-        <v>442</v>
-      </c>
-      <c r="F230" t="s">
-        <v>89</v>
-      </c>
-      <c r="G230" t="s">
-        <v>125</v>
       </c>
       <c r="H230" t="s">
         <v>679</v>
@@ -17316,7 +17316,7 @@
         <v>89</v>
       </c>
       <c r="M230" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231">
@@ -17351,7 +17351,7 @@
         <v>187</v>
       </c>
       <c r="K231" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L231" t="s">
         <v>89</v>
@@ -17543,7 +17543,7 @@
         <v>89</v>
       </c>
       <c r="G234" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H234" t="s">
         <v>193</v>
@@ -17702,10 +17702,10 @@
         <v>213</v>
       </c>
       <c r="D237" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E237" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F237" t="s">
         <v>213</v>
@@ -17882,22 +17882,22 @@
         <v>101</v>
       </c>
       <c r="E240" t="s">
+        <v>203</v>
+      </c>
+      <c r="F240" t="s">
+        <v>89</v>
+      </c>
+      <c r="G240" t="s">
+        <v>101</v>
+      </c>
+      <c r="H240" t="s">
         <v>197</v>
       </c>
-      <c r="F240" t="s">
-        <v>89</v>
-      </c>
-      <c r="G240" t="s">
+      <c r="I240" t="s">
+        <v>89</v>
+      </c>
+      <c r="J240" t="s">
         <v>111</v>
-      </c>
-      <c r="H240" t="s">
-        <v>201</v>
-      </c>
-      <c r="I240" t="s">
-        <v>89</v>
-      </c>
-      <c r="J240" t="s">
-        <v>101</v>
       </c>
       <c r="K240" t="s">
         <v>198</v>
@@ -18231,7 +18231,7 @@
         <v>793</v>
       </c>
       <c r="B245" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C245" t="s">
         <v>89</v>
@@ -18240,7 +18240,7 @@
         <v>113</v>
       </c>
       <c r="E245" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F245" t="s">
         <v>89</v>
@@ -18249,25 +18249,25 @@
         <v>69</v>
       </c>
       <c r="H245" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I245" t="s">
         <v>89</v>
       </c>
       <c r="J245" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K245" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L245" t="s">
         <v>89</v>
       </c>
       <c r="M245" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N245" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O245" t="s">
         <v>89</v>
@@ -18276,7 +18276,7 @@
         <v>69</v>
       </c>
       <c r="Q245" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R245" t="s">
         <v>89</v>
@@ -18317,22 +18317,22 @@
         <v>92</v>
       </c>
       <c r="H246" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="I246" t="s">
         <v>795</v>
       </c>
       <c r="J246" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K246" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L246" t="s">
         <v>795</v>
       </c>
       <c r="M246" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N246" t="s">
         <v>236</v>
@@ -18367,40 +18367,40 @@
         <v>796</v>
       </c>
       <c r="B247" t="s">
+        <v>130</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
         <v>201</v>
       </c>
-      <c r="C247" t="s">
-        <v>63</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>202</v>
       </c>
-      <c r="E247" t="s">
-        <v>151</v>
-      </c>
       <c r="F247" t="s">
         <v>63</v>
       </c>
       <c r="G247" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H247" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I247" t="s">
         <v>63</v>
       </c>
       <c r="J247" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K247" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L247" t="s">
         <v>63</v>
       </c>
       <c r="M247" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N247" t="s">
         <v>204</v>
@@ -18586,7 +18586,7 @@
         <v>89</v>
       </c>
       <c r="D250" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E250" t="s">
         <v>173</v>
@@ -18689,7 +18689,7 @@
         <v>805</v>
       </c>
       <c r="B252" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C252" t="s">
         <v>89</v>
@@ -18748,22 +18748,22 @@
         <v>806</v>
       </c>
       <c r="B253" t="s">
+        <v>442</v>
+      </c>
+      <c r="C253" t="s">
+        <v>89</v>
+      </c>
+      <c r="D253" t="s">
+        <v>125</v>
+      </c>
+      <c r="E253" t="s">
         <v>385</v>
       </c>
-      <c r="C253" t="s">
-        <v>89</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="F253" t="s">
+        <v>89</v>
+      </c>
+      <c r="G253" t="s">
         <v>101</v>
-      </c>
-      <c r="E253" t="s">
-        <v>442</v>
-      </c>
-      <c r="F253" t="s">
-        <v>89</v>
-      </c>
-      <c r="G253" t="s">
-        <v>125</v>
       </c>
       <c r="H253" t="s">
         <v>679</v>
@@ -18781,7 +18781,7 @@
         <v>89</v>
       </c>
       <c r="M253" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254">
@@ -18839,7 +18839,7 @@
         <v>809</v>
       </c>
       <c r="B255" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C255" t="s">
         <v>89</v>
@@ -18916,16 +18916,16 @@
         <v>111</v>
       </c>
       <c r="H256" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I256" t="s">
         <v>89</v>
       </c>
       <c r="J256" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="K256" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L256" t="s">
         <v>89</v>
@@ -18934,7 +18934,7 @@
         <v>101</v>
       </c>
       <c r="N256" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O256" t="s">
         <v>89</v>
@@ -18943,7 +18943,7 @@
         <v>69</v>
       </c>
       <c r="Q256" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R256" t="s">
         <v>89</v>
@@ -18952,13 +18952,13 @@
         <v>69</v>
       </c>
       <c r="T256" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="U256" t="s">
         <v>89</v>
       </c>
       <c r="V256" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="W256" t="s">
         <v>95</v>
@@ -19025,40 +19025,40 @@
         <v>813</v>
       </c>
       <c r="B258" t="s">
+        <v>585</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>109</v>
+      </c>
+      <c r="E258" t="s">
         <v>217</v>
       </c>
-      <c r="C258" t="s">
-        <v>63</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="F258" t="s">
+        <v>63</v>
+      </c>
+      <c r="G258" t="s">
         <v>113</v>
       </c>
-      <c r="E258" t="s">
+      <c r="H258" t="s">
         <v>218</v>
       </c>
-      <c r="F258" t="s">
-        <v>63</v>
-      </c>
-      <c r="G258" t="s">
-        <v>154</v>
-      </c>
-      <c r="H258" t="s">
+      <c r="I258" t="s">
+        <v>63</v>
+      </c>
+      <c r="J258" t="s">
+        <v>151</v>
+      </c>
+      <c r="K258" t="s">
         <v>391</v>
       </c>
-      <c r="I258" t="s">
-        <v>63</v>
-      </c>
-      <c r="J258" t="s">
+      <c r="L258" t="s">
+        <v>63</v>
+      </c>
+      <c r="M258" t="s">
         <v>113</v>
-      </c>
-      <c r="K258" t="s">
-        <v>587</v>
-      </c>
-      <c r="L258" t="s">
-        <v>63</v>
-      </c>
-      <c r="M258" t="s">
-        <v>109</v>
       </c>
       <c r="N258" t="s">
         <v>814</v>
@@ -19165,7 +19165,7 @@
         <v>818</v>
       </c>
       <c r="Z259" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA259" t="s">
         <v>89</v>
@@ -19174,7 +19174,7 @@
         <v>113</v>
       </c>
       <c r="AC259" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD259" t="s">
         <v>89</v>
@@ -19183,25 +19183,25 @@
         <v>69</v>
       </c>
       <c r="AF259" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AG259" t="s">
         <v>89</v>
       </c>
       <c r="AH259" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AI259" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AJ259" t="s">
         <v>89</v>
       </c>
       <c r="AK259" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="AL259" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AM259" t="s">
         <v>89</v>
@@ -19210,7 +19210,7 @@
         <v>69</v>
       </c>
       <c r="AO259" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AP259" t="s">
         <v>89</v>
@@ -19298,10 +19298,10 @@
         <v>213</v>
       </c>
       <c r="D261" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E261" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F261" t="s">
         <v>213</v>
@@ -19392,7 +19392,7 @@
         <v>826</v>
       </c>
       <c r="B263" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C263" t="s">
         <v>572</v>
@@ -19596,7 +19596,7 @@
         <v>101</v>
       </c>
       <c r="H266" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="I266" t="s">
         <v>63</v>
@@ -19605,25 +19605,25 @@
         <v>111</v>
       </c>
       <c r="K266" t="s">
+        <v>139</v>
+      </c>
+      <c r="L266" t="s">
+        <v>63</v>
+      </c>
+      <c r="M266" t="s">
+        <v>111</v>
+      </c>
+      <c r="N266" t="s">
         <v>436</v>
       </c>
-      <c r="L266" t="s">
-        <v>63</v>
-      </c>
-      <c r="M266" t="s">
+      <c r="O266" t="s">
+        <v>63</v>
+      </c>
+      <c r="P266" t="s">
         <v>101</v>
       </c>
-      <c r="N266" t="s">
-        <v>442</v>
-      </c>
-      <c r="O266" t="s">
-        <v>63</v>
-      </c>
-      <c r="P266" t="s">
-        <v>111</v>
-      </c>
       <c r="Q266" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R266" t="s">
         <v>63</v>
@@ -19655,16 +19655,16 @@
         <v>101</v>
       </c>
       <c r="E267" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F267" t="s">
         <v>249</v>
       </c>
       <c r="G267" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H267" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="I267" t="s">
         <v>249</v>
@@ -19673,22 +19673,22 @@
         <v>125</v>
       </c>
       <c r="K267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L267" t="s">
         <v>249</v>
       </c>
       <c r="M267" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="N267" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="O267" t="s">
         <v>249</v>
       </c>
       <c r="P267" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q267" t="s">
         <v>252</v>
@@ -19714,7 +19714,7 @@
         <v>247</v>
       </c>
       <c r="E268" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F268" t="s">
         <v>63</v>
@@ -20108,7 +20108,7 @@
         <v>112</v>
       </c>
       <c r="C276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="D276" t="s">
         <v>113</v>
@@ -20117,7 +20117,7 @@
         <v>410</v>
       </c>
       <c r="F276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="G276" t="s">
         <v>113</v>
@@ -20126,7 +20126,7 @@
         <v>197</v>
       </c>
       <c r="I276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="J276" t="s">
         <v>111</v>
@@ -20135,7 +20135,7 @@
         <v>250</v>
       </c>
       <c r="L276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="M276" t="s">
         <v>111</v>
@@ -20144,7 +20144,7 @@
         <v>411</v>
       </c>
       <c r="O276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="P276" t="s">
         <v>113</v>
@@ -20153,7 +20153,7 @@
         <v>853</v>
       </c>
       <c r="R276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="S276" t="s">
         <v>109</v>
@@ -20162,7 +20162,7 @@
         <v>95</v>
       </c>
       <c r="U276" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="V276" t="s">
         <v>428</v>
@@ -20171,7 +20171,7 @@
         <v>854</v>
       </c>
       <c r="X276" t="s">
-        <v>378</v>
+        <v>63</v>
       </c>
       <c r="Y276" t="s">
         <v>63</v>
@@ -20681,7 +20681,7 @@
         <v>99</v>
       </c>
       <c r="K285" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L285" t="s">
         <v>89</v>
@@ -20690,7 +20690,7 @@
         <v>99</v>
       </c>
       <c r="N285" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="O285" t="s">
         <v>89</v>
@@ -20826,7 +20826,7 @@
         <v>99</v>
       </c>
       <c r="K287" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L287" t="s">
         <v>89</v>
@@ -20835,7 +20835,7 @@
         <v>99</v>
       </c>
       <c r="N287" t="s">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="O287" t="s">
         <v>89</v>
@@ -21221,22 +21221,22 @@
         <v>101</v>
       </c>
       <c r="H294" t="s">
+        <v>204</v>
+      </c>
+      <c r="I294" t="s">
+        <v>89</v>
+      </c>
+      <c r="J294" t="s">
+        <v>109</v>
+      </c>
+      <c r="K294" t="s">
         <v>197</v>
       </c>
-      <c r="I294" t="s">
-        <v>89</v>
-      </c>
-      <c r="J294" t="s">
+      <c r="L294" t="s">
+        <v>89</v>
+      </c>
+      <c r="M294" t="s">
         <v>111</v>
-      </c>
-      <c r="K294" t="s">
-        <v>204</v>
-      </c>
-      <c r="L294" t="s">
-        <v>89</v>
-      </c>
-      <c r="M294" t="s">
-        <v>109</v>
       </c>
       <c r="N294" t="s">
         <v>198</v>
@@ -21507,16 +21507,16 @@
         <v>883</v>
       </c>
       <c r="B299" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="C299" t="s">
         <v>89</v>
       </c>
       <c r="D299" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E299" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="F299" t="s">
         <v>89</v>
@@ -21525,7 +21525,7 @@
         <v>111</v>
       </c>
       <c r="H299" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
       <c r="I299" t="s">
         <v>89</v>
@@ -21534,7 +21534,7 @@
         <v>69</v>
       </c>
       <c r="K299" t="s">
-        <v>203</v>
+        <v>444</v>
       </c>
       <c r="L299" t="s">
         <v>89</v>
@@ -21543,16 +21543,16 @@
         <v>101</v>
       </c>
       <c r="N299" t="s">
-        <v>271</v>
+        <v>445</v>
       </c>
       <c r="O299" t="s">
         <v>89</v>
       </c>
       <c r="P299" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="Q299" t="s">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="R299" t="s">
         <v>89</v>
@@ -21561,13 +21561,22 @@
         <v>69</v>
       </c>
       <c r="T299" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="U299" t="s">
         <v>89</v>
       </c>
       <c r="V299" t="s">
-        <v>273</v>
+        <v>111</v>
+      </c>
+      <c r="W299" t="s">
+        <v>95</v>
+      </c>
+      <c r="X299" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="300">
@@ -21575,25 +21584,25 @@
         <v>884</v>
       </c>
       <c r="B300" t="s">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="C300" t="s">
         <v>89</v>
       </c>
       <c r="D300" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E300" t="s">
-        <v>442</v>
+        <v>202</v>
       </c>
       <c r="F300" t="s">
         <v>89</v>
       </c>
       <c r="G300" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H300" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="I300" t="s">
         <v>89</v>
@@ -21602,25 +21611,25 @@
         <v>111</v>
       </c>
       <c r="K300" t="s">
-        <v>443</v>
+        <v>251</v>
       </c>
       <c r="L300" t="s">
         <v>89</v>
       </c>
       <c r="M300" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="N300" t="s">
-        <v>444</v>
+        <v>271</v>
       </c>
       <c r="O300" t="s">
         <v>89</v>
       </c>
       <c r="P300" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="Q300" t="s">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="R300" t="s">
         <v>89</v>
@@ -21629,22 +21638,13 @@
         <v>69</v>
       </c>
       <c r="T300" t="s">
-        <v>446</v>
+        <v>95</v>
       </c>
       <c r="U300" t="s">
         <v>89</v>
       </c>
       <c r="V300" t="s">
-        <v>69</v>
-      </c>
-      <c r="W300" t="s">
-        <v>95</v>
-      </c>
-      <c r="X300" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y300" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301">
@@ -21896,7 +21896,7 @@
         <v>92</v>
       </c>
       <c r="H303" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I303" t="s">
         <v>89</v>
@@ -22114,7 +22114,7 @@
         <v>893</v>
       </c>
       <c r="B307" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C307" t="s">
         <v>89</v>
@@ -22123,7 +22123,7 @@
         <v>113</v>
       </c>
       <c r="E307" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F307" t="s">
         <v>89</v>
@@ -22132,25 +22132,25 @@
         <v>69</v>
       </c>
       <c r="H307" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I307" t="s">
         <v>89</v>
       </c>
       <c r="J307" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K307" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L307" t="s">
         <v>89</v>
       </c>
       <c r="M307" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N307" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O307" t="s">
         <v>89</v>
@@ -22206,7 +22206,7 @@
         <v>89</v>
       </c>
       <c r="J308" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K308" t="s">
         <v>479</v>
@@ -22445,7 +22445,7 @@
         <v>247</v>
       </c>
       <c r="E312" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F312" t="s">
         <v>253</v>
@@ -22519,10 +22519,10 @@
         <v>213</v>
       </c>
       <c r="D313" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E313" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F313" t="s">
         <v>213</v>
@@ -22604,22 +22604,22 @@
         <v>187</v>
       </c>
       <c r="K315" t="s">
+        <v>814</v>
+      </c>
+      <c r="L315" t="s">
+        <v>89</v>
+      </c>
+      <c r="M315" t="s">
+        <v>106</v>
+      </c>
+      <c r="N315" t="s">
         <v>561</v>
       </c>
-      <c r="L315" t="s">
-        <v>89</v>
-      </c>
-      <c r="M315" t="s">
+      <c r="O315" t="s">
+        <v>89</v>
+      </c>
+      <c r="P315" t="s">
         <v>187</v>
-      </c>
-      <c r="N315" t="s">
-        <v>814</v>
-      </c>
-      <c r="O315" t="s">
-        <v>89</v>
-      </c>
-      <c r="P315" t="s">
-        <v>106</v>
       </c>
       <c r="Q315" t="s">
         <v>95</v>
@@ -22663,22 +22663,22 @@
         <v>187</v>
       </c>
       <c r="K316" t="s">
+        <v>814</v>
+      </c>
+      <c r="L316" t="s">
+        <v>89</v>
+      </c>
+      <c r="M316" t="s">
+        <v>106</v>
+      </c>
+      <c r="N316" t="s">
         <v>561</v>
       </c>
-      <c r="L316" t="s">
-        <v>89</v>
-      </c>
-      <c r="M316" t="s">
+      <c r="O316" t="s">
+        <v>89</v>
+      </c>
+      <c r="P316" t="s">
         <v>187</v>
-      </c>
-      <c r="N316" t="s">
-        <v>814</v>
-      </c>
-      <c r="O316" t="s">
-        <v>89</v>
-      </c>
-      <c r="P316" t="s">
-        <v>106</v>
       </c>
       <c r="Q316" t="s">
         <v>95</v>
